--- a/data/pca/factorExposure/factorExposure_2009-07-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01657803727918454</v>
+        <v>0.01644049403559317</v>
       </c>
       <c r="C2">
-        <v>-0.001380645901129543</v>
+        <v>-0.0009428326776985569</v>
       </c>
       <c r="D2">
-        <v>-0.007911504358185979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009305304351068411</v>
+      </c>
+      <c r="E2">
+        <v>0.001232393811998219</v>
+      </c>
+      <c r="F2">
+        <v>0.01221585287251157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0909314583273131</v>
+        <v>0.09167556476881854</v>
       </c>
       <c r="C4">
-        <v>-0.01959739558429011</v>
+        <v>-0.01460585801060128</v>
       </c>
       <c r="D4">
-        <v>-0.07327029218564023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08291428140460083</v>
+      </c>
+      <c r="E4">
+        <v>0.02843037567563694</v>
+      </c>
+      <c r="F4">
+        <v>-0.03153399162753298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1526823436698657</v>
+        <v>0.1609901162884735</v>
       </c>
       <c r="C6">
-        <v>-0.0289201320461306</v>
+        <v>-0.02802541781695982</v>
       </c>
       <c r="D6">
-        <v>0.03321150730063981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02717227777622652</v>
+      </c>
+      <c r="E6">
+        <v>0.008639681663136122</v>
+      </c>
+      <c r="F6">
+        <v>-0.04204565389012047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06145336767521929</v>
+        <v>0.06270821130221683</v>
       </c>
       <c r="C7">
-        <v>-0.002025743364517642</v>
+        <v>0.00156509677123934</v>
       </c>
       <c r="D7">
-        <v>-0.046347254941749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05253101621775581</v>
+      </c>
+      <c r="E7">
+        <v>0.01325109772705337</v>
+      </c>
+      <c r="F7">
+        <v>-0.04889648010089277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06212734268921306</v>
+        <v>0.05771417939866124</v>
       </c>
       <c r="C8">
-        <v>0.01072173896519072</v>
+        <v>0.01245497404984767</v>
       </c>
       <c r="D8">
-        <v>-0.02572242475557918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03052666413095192</v>
+      </c>
+      <c r="E8">
+        <v>0.01699117957203614</v>
+      </c>
+      <c r="F8">
+        <v>0.02613411708772884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07033238802275218</v>
+        <v>0.07118144390287183</v>
       </c>
       <c r="C9">
-        <v>-0.01609621375750506</v>
+        <v>-0.01035082504679634</v>
       </c>
       <c r="D9">
-        <v>-0.07517237358484509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08618496764845901</v>
+      </c>
+      <c r="E9">
+        <v>0.02503569765680938</v>
+      </c>
+      <c r="F9">
+        <v>-0.04826298122412785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08560659293546624</v>
+        <v>0.08854350829324489</v>
       </c>
       <c r="C10">
-        <v>-0.01462549633335805</v>
+        <v>-0.02144284138851978</v>
       </c>
       <c r="D10">
-        <v>0.1664329577947364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1604229299353123</v>
+      </c>
+      <c r="E10">
+        <v>-0.03283610340008183</v>
+      </c>
+      <c r="F10">
+        <v>0.05742006897285185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09129860508942145</v>
+        <v>0.08794464453233695</v>
       </c>
       <c r="C11">
-        <v>-0.01709918009996174</v>
+        <v>-0.01123539368884541</v>
       </c>
       <c r="D11">
-        <v>-0.1066486484810689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1177715187794518</v>
+      </c>
+      <c r="E11">
+        <v>0.04792707413213208</v>
+      </c>
+      <c r="F11">
+        <v>-0.02296307083777279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09577884649622433</v>
+        <v>0.09036316675716149</v>
       </c>
       <c r="C12">
-        <v>-0.01465600983136934</v>
+        <v>-0.008317688161455001</v>
       </c>
       <c r="D12">
-        <v>-0.1115551458224458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131990246966414</v>
+      </c>
+      <c r="E12">
+        <v>0.04684341880604453</v>
+      </c>
+      <c r="F12">
+        <v>-0.02952775207796918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0437161009266569</v>
+        <v>0.04367806502669733</v>
       </c>
       <c r="C13">
-        <v>-0.005547261718529665</v>
+        <v>-0.002398812451892207</v>
       </c>
       <c r="D13">
-        <v>-0.03755096319304242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05339048378142162</v>
+      </c>
+      <c r="E13">
+        <v>-0.0006285619119465618</v>
+      </c>
+      <c r="F13">
+        <v>-0.003720224502043151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01837140200478026</v>
+        <v>0.02313839892733768</v>
       </c>
       <c r="C14">
-        <v>-0.01484851313581185</v>
+        <v>-0.01355199762953697</v>
       </c>
       <c r="D14">
-        <v>-0.02675716477336108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0330169122589986</v>
+      </c>
+      <c r="E14">
+        <v>0.01820209192659706</v>
+      </c>
+      <c r="F14">
+        <v>-0.0131083669517224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03318609724613154</v>
+        <v>0.03352740386825123</v>
       </c>
       <c r="C15">
-        <v>-0.007193101340877629</v>
+        <v>-0.005186975460813601</v>
       </c>
       <c r="D15">
-        <v>-0.04067716094098628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0464297192375389</v>
+      </c>
+      <c r="E15">
+        <v>0.007790038059903609</v>
+      </c>
+      <c r="F15">
+        <v>-0.02928732722956639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07514957403430642</v>
+        <v>0.07304767431521686</v>
       </c>
       <c r="C16">
-        <v>-0.007412726384207607</v>
+        <v>-0.001509601990086843</v>
       </c>
       <c r="D16">
-        <v>-0.1092656783832554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284020215267886</v>
+      </c>
+      <c r="E16">
+        <v>0.06209422685277192</v>
+      </c>
+      <c r="F16">
+        <v>-0.02558130935684093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0001346417212821894</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000278618417158315</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001518447984143755</v>
+      </c>
+      <c r="E17">
+        <v>0.001125283402445354</v>
+      </c>
+      <c r="F17">
+        <v>0.002447880462610557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01853234220051354</v>
+        <v>0.03997872629957575</v>
       </c>
       <c r="C18">
-        <v>0.003237457986894502</v>
+        <v>0.002981152981701635</v>
       </c>
       <c r="D18">
-        <v>-0.02694421818228468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01563322909740995</v>
+      </c>
+      <c r="E18">
+        <v>-0.00748280963565616</v>
+      </c>
+      <c r="F18">
+        <v>0.009018396960924999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06364899090206227</v>
+        <v>0.06238668991394668</v>
       </c>
       <c r="C20">
-        <v>-0.005488732362450888</v>
+        <v>-0.0008314755001779221</v>
       </c>
       <c r="D20">
-        <v>-0.06570300299405313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0784228386797102</v>
+      </c>
+      <c r="E20">
+        <v>0.0573098332057381</v>
+      </c>
+      <c r="F20">
+        <v>-0.02896883873570488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03833619575631094</v>
+        <v>0.04139908183138062</v>
       </c>
       <c r="C21">
-        <v>-0.009599585753952955</v>
+        <v>-0.006619443570459546</v>
       </c>
       <c r="D21">
-        <v>-0.03595424307629381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03755836979260754</v>
+      </c>
+      <c r="E21">
+        <v>-0.0009316285459820242</v>
+      </c>
+      <c r="F21">
+        <v>0.02642306192275195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04144281633623724</v>
+        <v>0.04488986949872385</v>
       </c>
       <c r="C22">
-        <v>-0.001934772016020706</v>
+        <v>-0.0007733217482684047</v>
       </c>
       <c r="D22">
-        <v>0.003142738074002793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005970501695953922</v>
+      </c>
+      <c r="E22">
+        <v>0.03623842687289963</v>
+      </c>
+      <c r="F22">
+        <v>0.05073008787646534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04140570130997272</v>
+        <v>0.04486592559374174</v>
       </c>
       <c r="C23">
-        <v>-0.001924386606999762</v>
+        <v>-0.0007643691728032096</v>
       </c>
       <c r="D23">
-        <v>0.003120072874023547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.005984973732960571</v>
+      </c>
+      <c r="E23">
+        <v>0.03642140614667507</v>
+      </c>
+      <c r="F23">
+        <v>0.05070296440019496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08193887078771492</v>
+        <v>0.07884275239022387</v>
       </c>
       <c r="C24">
-        <v>-0.007751394976686873</v>
+        <v>-0.002191484083214742</v>
       </c>
       <c r="D24">
-        <v>-0.111836148086204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206655908468793</v>
+      </c>
+      <c r="E24">
+        <v>0.0498235261323396</v>
+      </c>
+      <c r="F24">
+        <v>-0.02822282531444862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08758743009577602</v>
+        <v>0.08393746988018708</v>
       </c>
       <c r="C25">
-        <v>-0.01053836781766307</v>
+        <v>-0.004920784219883937</v>
       </c>
       <c r="D25">
-        <v>-0.09718950753867481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098404406313303</v>
+      </c>
+      <c r="E25">
+        <v>0.03306284228960357</v>
+      </c>
+      <c r="F25">
+        <v>-0.02607639014620637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05806110075960463</v>
+        <v>0.059855501338963</v>
       </c>
       <c r="C26">
-        <v>-0.0172309374995228</v>
+        <v>-0.01447753749168446</v>
       </c>
       <c r="D26">
-        <v>-0.02480314590354681</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04314299339683845</v>
+      </c>
+      <c r="E26">
+        <v>0.02973253358256247</v>
+      </c>
+      <c r="F26">
+        <v>0.009047733541987775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1339120860708379</v>
+        <v>0.1418402646819095</v>
       </c>
       <c r="C28">
-        <v>-0.01358116273757191</v>
+        <v>-0.02294206246468346</v>
       </c>
       <c r="D28">
-        <v>0.2689788963190604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2610248747499669</v>
+      </c>
+      <c r="E28">
+        <v>-0.06865547433526062</v>
+      </c>
+      <c r="F28">
+        <v>-0.00529568477304315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02513487193773753</v>
+        <v>0.02854381808775499</v>
       </c>
       <c r="C29">
-        <v>-0.009571149544744209</v>
+        <v>-0.008742644347167391</v>
       </c>
       <c r="D29">
-        <v>-0.02540213525979838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03092590951686559</v>
+      </c>
+      <c r="E29">
+        <v>0.01309941069449651</v>
+      </c>
+      <c r="F29">
+        <v>0.01292020345892992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06270175421321225</v>
+        <v>0.05907210375233118</v>
       </c>
       <c r="C30">
-        <v>-0.009156915010392204</v>
+        <v>-0.002603106757689533</v>
       </c>
       <c r="D30">
-        <v>-0.07293435408241741</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08722234836791426</v>
+      </c>
+      <c r="E30">
+        <v>0.01390453742312638</v>
+      </c>
+      <c r="F30">
+        <v>-0.07872389496763892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04999512016476418</v>
+        <v>0.05120656558850663</v>
       </c>
       <c r="C31">
-        <v>-0.01700156040822672</v>
+        <v>-0.01602953128950227</v>
       </c>
       <c r="D31">
-        <v>-0.02290470850556877</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02494169589768046</v>
+      </c>
+      <c r="E31">
+        <v>0.02900331997682324</v>
+      </c>
+      <c r="F31">
+        <v>0.000832268856095809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04693528752589175</v>
+        <v>0.05122447510173751</v>
       </c>
       <c r="C32">
-        <v>-0.002107130422302891</v>
+        <v>0.001557802464431121</v>
       </c>
       <c r="D32">
-        <v>-0.02442553723596061</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03449227090638628</v>
+      </c>
+      <c r="E32">
+        <v>0.03249143656631676</v>
+      </c>
+      <c r="F32">
+        <v>-0.003201704304824167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0910341038893336</v>
+        <v>0.08984085634497668</v>
       </c>
       <c r="C33">
-        <v>-0.0133115928548623</v>
+        <v>-0.006920993050646</v>
       </c>
       <c r="D33">
-        <v>-0.08537203082665351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1033672752001185</v>
+      </c>
+      <c r="E33">
+        <v>0.04686796450430557</v>
+      </c>
+      <c r="F33">
+        <v>-0.0425651823285299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06910459231963055</v>
+        <v>0.06752000430717339</v>
       </c>
       <c r="C34">
-        <v>-0.01529305793741899</v>
+        <v>-0.01039231721279732</v>
       </c>
       <c r="D34">
-        <v>-0.09176374753111434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095328657906001</v>
+      </c>
+      <c r="E34">
+        <v>0.03604768469008842</v>
+      </c>
+      <c r="F34">
+        <v>-0.03342721450828604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02447574296105554</v>
+        <v>0.0264550280839849</v>
       </c>
       <c r="C35">
-        <v>-0.003308002407346932</v>
+        <v>-0.003073056096424344</v>
       </c>
       <c r="D35">
-        <v>-0.006956556606087205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0123450923783528</v>
+      </c>
+      <c r="E35">
+        <v>0.01309922277283577</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007628025421955875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02569507367358064</v>
+        <v>0.0278600264711839</v>
       </c>
       <c r="C36">
-        <v>-0.007604016966873796</v>
+        <v>-0.006907103954570886</v>
       </c>
       <c r="D36">
-        <v>-0.03880270088760343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03909528415839916</v>
+      </c>
+      <c r="E36">
+        <v>0.01701129798737693</v>
+      </c>
+      <c r="F36">
+        <v>-0.01362162201646099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.00127057706501645</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007796728200302742</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002658598573565897</v>
+      </c>
+      <c r="E37">
+        <v>0.0002360513741802898</v>
+      </c>
+      <c r="F37">
+        <v>0.001963071906076548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1131173685958704</v>
+        <v>0.1019677223343935</v>
       </c>
       <c r="C39">
-        <v>-0.02326647120361906</v>
+        <v>-0.01618875723137656</v>
       </c>
       <c r="D39">
-        <v>-0.1464993579826646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.151384453888628</v>
+      </c>
+      <c r="E39">
+        <v>0.06002590369659602</v>
+      </c>
+      <c r="F39">
+        <v>-0.02052738614376606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03841812828990696</v>
+        <v>0.04340142434229323</v>
       </c>
       <c r="C40">
-        <v>-0.009182806072702361</v>
+        <v>-0.007660883339271647</v>
       </c>
       <c r="D40">
-        <v>-0.01998332296487413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03252194783819426</v>
+      </c>
+      <c r="E40">
+        <v>0.002089217257929917</v>
+      </c>
+      <c r="F40">
+        <v>0.01617441485685934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02526478934405371</v>
+        <v>0.02770042204094664</v>
       </c>
       <c r="C41">
-        <v>-0.007360309368527285</v>
+        <v>-0.006940306127429612</v>
       </c>
       <c r="D41">
-        <v>-0.009688026896604928</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01074989381876211</v>
+      </c>
+      <c r="E41">
+        <v>0.0122744517280811</v>
+      </c>
+      <c r="F41">
+        <v>0.007670645061048051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04212481514106261</v>
+        <v>0.04047486349171817</v>
       </c>
       <c r="C43">
-        <v>-0.008176433891971894</v>
+        <v>-0.007707078121765101</v>
       </c>
       <c r="D43">
-        <v>-0.01750229159460456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01954195716113026</v>
+      </c>
+      <c r="E43">
+        <v>0.02584163010854558</v>
+      </c>
+      <c r="F43">
+        <v>0.01649507921203378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07009231878807985</v>
+        <v>0.0791368222651869</v>
       </c>
       <c r="C44">
-        <v>-0.02483788822648872</v>
+        <v>-0.0195036417996931</v>
       </c>
       <c r="D44">
-        <v>-0.09364657779846479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0960686610318805</v>
+      </c>
+      <c r="E44">
+        <v>0.06252699658471551</v>
+      </c>
+      <c r="F44">
+        <v>-0.1673754923124223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02140434017126741</v>
+        <v>0.02450068098059813</v>
       </c>
       <c r="C46">
-        <v>-0.004216981833324814</v>
+        <v>-0.003692045164479131</v>
       </c>
       <c r="D46">
-        <v>-0.006264331786036143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01311880645077737</v>
+      </c>
+      <c r="E46">
+        <v>0.02725903989765118</v>
+      </c>
+      <c r="F46">
+        <v>0.005563904055157444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05249205762318702</v>
+        <v>0.05214732147765402</v>
       </c>
       <c r="C47">
-        <v>-0.004977400669769262</v>
+        <v>-0.004310409142003594</v>
       </c>
       <c r="D47">
-        <v>-0.008142968380466355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01086426781563581</v>
+      </c>
+      <c r="E47">
+        <v>0.02288929500823714</v>
+      </c>
+      <c r="F47">
+        <v>0.03279174887111887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04807420129251159</v>
+        <v>0.05083144165435251</v>
       </c>
       <c r="C48">
-        <v>-0.004678865950487741</v>
+        <v>-0.002177392479312672</v>
       </c>
       <c r="D48">
-        <v>-0.04279638710204864</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04992105194527056</v>
+      </c>
+      <c r="E48">
+        <v>-0.004787175600545074</v>
+      </c>
+      <c r="F48">
+        <v>-0.0119794352191028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2013611864420813</v>
+        <v>0.2002643165830154</v>
       </c>
       <c r="C49">
-        <v>-0.02209615974127655</v>
+        <v>-0.02001552684372605</v>
       </c>
       <c r="D49">
-        <v>0.01265552112348838</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005412244880258916</v>
+      </c>
+      <c r="E49">
+        <v>0.03175288941841362</v>
+      </c>
+      <c r="F49">
+        <v>-0.04818029927260787</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04944409370488107</v>
+        <v>0.05170362052009641</v>
       </c>
       <c r="C50">
-        <v>-0.0130079724628496</v>
+        <v>-0.01176441396455961</v>
       </c>
       <c r="D50">
-        <v>-0.02287602484259502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02323131041389307</v>
+      </c>
+      <c r="E50">
+        <v>0.03006968400297669</v>
+      </c>
+      <c r="F50">
+        <v>-0.01012230357099102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.155868524531538</v>
+        <v>0.149480279532359</v>
       </c>
       <c r="C52">
-        <v>-0.02066747019832752</v>
+        <v>-0.01870227126606585</v>
       </c>
       <c r="D52">
-        <v>-0.04632247212714151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04255746618993533</v>
+      </c>
+      <c r="E52">
+        <v>0.02313062285231867</v>
+      </c>
+      <c r="F52">
+        <v>-0.04339979117195594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1742981893263104</v>
+        <v>0.1694863125176105</v>
       </c>
       <c r="C53">
-        <v>-0.02097452189922091</v>
+        <v>-0.02144980695327176</v>
       </c>
       <c r="D53">
-        <v>-0.01145056013642964</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005757572477433966</v>
+      </c>
+      <c r="E53">
+        <v>0.03057984665561881</v>
+      </c>
+      <c r="F53">
+        <v>-0.07603747327234869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01673828265870071</v>
+        <v>0.01953619579095453</v>
       </c>
       <c r="C54">
-        <v>-0.01225260338489944</v>
+        <v>-0.0109541728786874</v>
       </c>
       <c r="D54">
-        <v>-0.02771795284513366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03379033758734462</v>
+      </c>
+      <c r="E54">
+        <v>0.02146780370357782</v>
+      </c>
+      <c r="F54">
+        <v>0.002219651169556789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1172952593594423</v>
+        <v>0.1161749765863061</v>
       </c>
       <c r="C55">
-        <v>-0.01863285418327651</v>
+        <v>-0.0187397501184342</v>
       </c>
       <c r="D55">
-        <v>-0.009827610557031873</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008747912239221077</v>
+      </c>
+      <c r="E55">
+        <v>0.02614470021824081</v>
+      </c>
+      <c r="F55">
+        <v>-0.04797918018492742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.180303370414094</v>
+        <v>0.1758038366023665</v>
       </c>
       <c r="C56">
-        <v>-0.01895320758617817</v>
+        <v>-0.0194019727410163</v>
       </c>
       <c r="D56">
-        <v>-0.002264710906162229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002366419069980781</v>
+      </c>
+      <c r="E56">
+        <v>0.03306399013744823</v>
+      </c>
+      <c r="F56">
+        <v>-0.05501168225003563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04847554003566074</v>
+        <v>0.04600549216843149</v>
       </c>
       <c r="C58">
-        <v>-0.005533221033708301</v>
+        <v>0.000295859409483227</v>
       </c>
       <c r="D58">
-        <v>-0.06285514361672362</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07474331817154073</v>
+      </c>
+      <c r="E58">
+        <v>0.035670797901737</v>
+      </c>
+      <c r="F58">
+        <v>0.03636612780516681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1625191945521464</v>
+        <v>0.1668845286257516</v>
       </c>
       <c r="C59">
-        <v>-0.01540904209249752</v>
+        <v>-0.02317937466283329</v>
       </c>
       <c r="D59">
-        <v>0.2253197378079467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183486324660734</v>
+      </c>
+      <c r="E59">
+        <v>-0.04937332636382276</v>
+      </c>
+      <c r="F59">
+        <v>0.0389818355661759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2383848672792303</v>
+        <v>0.2303899812682058</v>
       </c>
       <c r="C60">
-        <v>-0.002565781000133768</v>
+        <v>0.0004805904450771165</v>
       </c>
       <c r="D60">
-        <v>-0.04265081872832944</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03902190547955055</v>
+      </c>
+      <c r="E60">
+        <v>0.005432748660372114</v>
+      </c>
+      <c r="F60">
+        <v>-0.004255364870042738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0842314998663866</v>
+        <v>0.07768084617743609</v>
       </c>
       <c r="C61">
-        <v>-0.01712786256520276</v>
+        <v>-0.01154622712659013</v>
       </c>
       <c r="D61">
-        <v>-0.1053406036987182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1162169959606398</v>
+      </c>
+      <c r="E61">
+        <v>0.03843646142747217</v>
+      </c>
+      <c r="F61">
+        <v>-0.007705428200532189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1717002251284493</v>
+        <v>0.1689895671841305</v>
       </c>
       <c r="C62">
-        <v>-0.02277666680587206</v>
+        <v>-0.02218365357881682</v>
       </c>
       <c r="D62">
-        <v>-0.003278944711817543</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005687118512387113</v>
+      </c>
+      <c r="E62">
+        <v>0.03400398379644166</v>
+      </c>
+      <c r="F62">
+        <v>-0.04085082165903559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04233016490823723</v>
+        <v>0.04602567417893925</v>
       </c>
       <c r="C63">
-        <v>-0.005600554759786921</v>
+        <v>-0.001773996126405774</v>
       </c>
       <c r="D63">
-        <v>-0.0466466537492345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06031670473774556</v>
+      </c>
+      <c r="E63">
+        <v>0.02486735866838945</v>
+      </c>
+      <c r="F63">
+        <v>-0.0005918758661499578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1130665247720075</v>
+        <v>0.110870371989498</v>
       </c>
       <c r="C64">
-        <v>-0.01567164264180046</v>
+        <v>-0.01245753186539845</v>
       </c>
       <c r="D64">
-        <v>-0.03072688864599599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04243397024928242</v>
+      </c>
+      <c r="E64">
+        <v>0.02353492520616985</v>
+      </c>
+      <c r="F64">
+        <v>-0.02476002885461236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1432836830809515</v>
+        <v>0.1515914445471386</v>
       </c>
       <c r="C65">
-        <v>-0.03496434826534901</v>
+        <v>-0.0351664485291091</v>
       </c>
       <c r="D65">
-        <v>0.05813356274258772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04789336052782322</v>
+      </c>
+      <c r="E65">
+        <v>0.004886794266552848</v>
+      </c>
+      <c r="F65">
+        <v>-0.03924278150666337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1363926485095276</v>
+        <v>0.1225550841510534</v>
       </c>
       <c r="C66">
-        <v>-0.02178646735502163</v>
+        <v>-0.01458498149398288</v>
       </c>
       <c r="D66">
-        <v>-0.1258488017568951</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1391966331222105</v>
+      </c>
+      <c r="E66">
+        <v>0.06454260443006971</v>
+      </c>
+      <c r="F66">
+        <v>-0.02646612729240329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0626962926808699</v>
+        <v>0.05580477791507316</v>
       </c>
       <c r="C67">
-        <v>-0.005696644808632847</v>
+        <v>-0.003238537367327482</v>
       </c>
       <c r="D67">
-        <v>-0.05499771671075773</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05668444788455885</v>
+      </c>
+      <c r="E67">
+        <v>0.01762997022885513</v>
+      </c>
+      <c r="F67">
+        <v>0.03436563137140697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070484693855479</v>
+        <v>0.1164971580157551</v>
       </c>
       <c r="C68">
-        <v>-0.02359935883534303</v>
+        <v>-0.03369151149284731</v>
       </c>
       <c r="D68">
-        <v>0.2670614980771228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613806027518949</v>
+      </c>
+      <c r="E68">
+        <v>-0.08843765200007445</v>
+      </c>
+      <c r="F68">
+        <v>-0.0008453698742979323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03983103806516201</v>
+        <v>0.0388617525428634</v>
       </c>
       <c r="C69">
-        <v>-0.002189672955059053</v>
+        <v>-0.001380162434934953</v>
       </c>
       <c r="D69">
-        <v>-0.00628935996800565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008328899739212411</v>
+      </c>
+      <c r="E69">
+        <v>0.02408951168558114</v>
+      </c>
+      <c r="F69">
+        <v>0.001292909769598093</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06589808896084554</v>
+        <v>0.06712229320344122</v>
       </c>
       <c r="C70">
-        <v>0.02464799701827104</v>
+        <v>0.02691295822402854</v>
       </c>
       <c r="D70">
-        <v>-0.002461167648802974</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02532930126568669</v>
+      </c>
+      <c r="E70">
+        <v>-0.03159834933294697</v>
+      </c>
+      <c r="F70">
+        <v>0.1812275568291729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1258304365085823</v>
+        <v>0.1366308343827975</v>
       </c>
       <c r="C71">
-        <v>-0.02790335096190155</v>
+        <v>-0.03831134005627587</v>
       </c>
       <c r="D71">
-        <v>0.283869137022655</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2715015781266937</v>
+      </c>
+      <c r="E71">
+        <v>-0.09804056192773766</v>
+      </c>
+      <c r="F71">
+        <v>-0.00679662781947283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1383732168434527</v>
+        <v>0.1440844705466756</v>
       </c>
       <c r="C72">
-        <v>-0.02808079489283697</v>
+        <v>-0.02814677689848037</v>
       </c>
       <c r="D72">
-        <v>-0.004382448984151402</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004341254660516259</v>
+      </c>
+      <c r="E72">
+        <v>0.0374174471478133</v>
+      </c>
+      <c r="F72">
+        <v>-0.02879062653349868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.205791185398796</v>
+        <v>0.2044952938519051</v>
       </c>
       <c r="C73">
-        <v>-0.01732476298628688</v>
+        <v>-0.01361452217003886</v>
       </c>
       <c r="D73">
-        <v>-0.01106083047889919</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01787047992873761</v>
+      </c>
+      <c r="E73">
+        <v>0.06664543955062441</v>
+      </c>
+      <c r="F73">
+        <v>-0.0419649247606978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09332199572860758</v>
+        <v>0.09475278501369085</v>
       </c>
       <c r="C74">
-        <v>-0.01459550828545816</v>
+        <v>-0.01414599123777028</v>
       </c>
       <c r="D74">
-        <v>-0.01778270321448984</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01694879921067742</v>
+      </c>
+      <c r="E74">
+        <v>0.04461396696198339</v>
+      </c>
+      <c r="F74">
+        <v>-0.05355417874397908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.133804045759459</v>
+        <v>0.1264579344073542</v>
       </c>
       <c r="C75">
-        <v>-0.03095905285625355</v>
+        <v>-0.02949513307458235</v>
       </c>
       <c r="D75">
-        <v>-0.02777346276225192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02914059630860708</v>
+      </c>
+      <c r="E75">
+        <v>0.05718660307315133</v>
+      </c>
+      <c r="F75">
+        <v>-0.02113615468283751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08207261291273842</v>
+        <v>0.09039845445887809</v>
       </c>
       <c r="C77">
-        <v>-0.01453874647967944</v>
+        <v>-0.008487327266463172</v>
       </c>
       <c r="D77">
-        <v>-0.1021564453190487</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114316382631363</v>
+      </c>
+      <c r="E77">
+        <v>0.04503773778600775</v>
+      </c>
+      <c r="F77">
+        <v>-0.03316040847762621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09918633820577347</v>
+        <v>0.1007119287606124</v>
       </c>
       <c r="C78">
-        <v>-0.0439393054671772</v>
+        <v>-0.03881725969360948</v>
       </c>
       <c r="D78">
-        <v>-0.1091910780560838</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1109554371740708</v>
+      </c>
+      <c r="E78">
+        <v>0.07587097633432549</v>
+      </c>
+      <c r="F78">
+        <v>-0.05282636360964986</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1648693097860776</v>
+        <v>0.1630432165428876</v>
       </c>
       <c r="C79">
-        <v>-0.02560888714231836</v>
+        <v>-0.02451327522693261</v>
       </c>
       <c r="D79">
-        <v>-0.01098623760998963</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01307950699728212</v>
+      </c>
+      <c r="E79">
+        <v>0.04434641500426157</v>
+      </c>
+      <c r="F79">
+        <v>-0.01317892403075082</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08056625095699187</v>
+        <v>0.0793470570278937</v>
       </c>
       <c r="C80">
-        <v>-0.001069362572573729</v>
+        <v>0.0006817551179722434</v>
       </c>
       <c r="D80">
-        <v>-0.05128305502850871</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05371738461942553</v>
+      </c>
+      <c r="E80">
+        <v>0.03240646610853003</v>
+      </c>
+      <c r="F80">
+        <v>0.02521386540543154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1203569733030312</v>
+        <v>0.1170339429615581</v>
       </c>
       <c r="C81">
-        <v>-0.03300685873911632</v>
+        <v>-0.03299046443195928</v>
       </c>
       <c r="D81">
-        <v>-0.01981366342547946</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01430532918537342</v>
+      </c>
+      <c r="E81">
+        <v>0.05505576235983149</v>
+      </c>
+      <c r="F81">
+        <v>-0.01876621280338888</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660032491937808</v>
+        <v>0.1654426530821163</v>
       </c>
       <c r="C82">
-        <v>-0.02633417726307999</v>
+        <v>-0.02695579032024335</v>
       </c>
       <c r="D82">
-        <v>-0.01290114378864846</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002765113693982426</v>
+      </c>
+      <c r="E82">
+        <v>0.02890566364154568</v>
+      </c>
+      <c r="F82">
+        <v>-0.08208735348166124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06382331804633598</v>
+        <v>0.05778502980497006</v>
       </c>
       <c r="C83">
-        <v>-0.005430882662279196</v>
+        <v>-0.00335264768983759</v>
       </c>
       <c r="D83">
-        <v>-0.04259325901821237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0486386905645001</v>
+      </c>
+      <c r="E83">
+        <v>0.001589947120046019</v>
+      </c>
+      <c r="F83">
+        <v>0.03562043565087934</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06225470978921077</v>
+        <v>0.05682368771061951</v>
       </c>
       <c r="C84">
-        <v>-0.01386351096297402</v>
+        <v>-0.01087376243476983</v>
       </c>
       <c r="D84">
-        <v>-0.06757637091312776</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07204315525608915</v>
+      </c>
+      <c r="E84">
+        <v>0.01388895689043453</v>
+      </c>
+      <c r="F84">
+        <v>-0.01437241881682581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1381782478194007</v>
+        <v>0.1342531678469996</v>
       </c>
       <c r="C85">
-        <v>-0.02976224489088502</v>
+        <v>-0.02942998659166738</v>
       </c>
       <c r="D85">
-        <v>-0.01227964895567506</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009774580926489345</v>
+      </c>
+      <c r="E85">
+        <v>0.03666168099121436</v>
+      </c>
+      <c r="F85">
+        <v>-0.04810276823887226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1018283996214858</v>
+        <v>0.09396755636251271</v>
       </c>
       <c r="C86">
-        <v>0.002769749891923846</v>
+        <v>0.005537596365121449</v>
       </c>
       <c r="D86">
-        <v>-0.007990327292696752</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05149387395216183</v>
+      </c>
+      <c r="E86">
+        <v>0.2184719456828683</v>
+      </c>
+      <c r="F86">
+        <v>0.8998828271778303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09852625160208346</v>
+        <v>0.09406194108862075</v>
       </c>
       <c r="C87">
-        <v>-0.02862547294889044</v>
+        <v>-0.01969338477393683</v>
       </c>
       <c r="D87">
-        <v>-0.07105124656401937</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09604933474935873</v>
+      </c>
+      <c r="E87">
+        <v>-0.05143351457978871</v>
+      </c>
+      <c r="F87">
+        <v>-0.05130329608468111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06062003136835534</v>
+        <v>0.06074101390104663</v>
       </c>
       <c r="C88">
-        <v>-0.005266294777810095</v>
+        <v>-0.002964310600522631</v>
       </c>
       <c r="D88">
-        <v>-0.05467978321181984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05014623015779909</v>
+      </c>
+      <c r="E88">
+        <v>0.02494084434637228</v>
+      </c>
+      <c r="F88">
+        <v>-0.01483575711346447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1182113819817016</v>
+        <v>0.1271433712494611</v>
       </c>
       <c r="C89">
-        <v>-0.004675769900262836</v>
+        <v>-0.01364066950610129</v>
       </c>
       <c r="D89">
-        <v>0.2505858410618316</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2448038080804573</v>
+      </c>
+      <c r="E89">
+        <v>-0.09242299396778765</v>
+      </c>
+      <c r="F89">
+        <v>0.008212171199679872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1382564322275112</v>
+        <v>0.1513288585098971</v>
       </c>
       <c r="C90">
-        <v>-0.02405711736946761</v>
+        <v>-0.03499267264679067</v>
       </c>
       <c r="D90">
-        <v>0.268273552772036</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2684313150023505</v>
+      </c>
+      <c r="E90">
+        <v>-0.1139373797360556</v>
+      </c>
+      <c r="F90">
+        <v>0.008827561731583337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1209431866584866</v>
+        <v>0.1205091668901629</v>
       </c>
       <c r="C91">
-        <v>-0.02078272717881414</v>
+        <v>-0.02107214433374819</v>
       </c>
       <c r="D91">
-        <v>0.01163196086280562</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01605503944759971</v>
+      </c>
+      <c r="E91">
+        <v>0.05385702809654894</v>
+      </c>
+      <c r="F91">
+        <v>0.0008396667114881552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1395407186365275</v>
+        <v>0.1471031615264602</v>
       </c>
       <c r="C92">
-        <v>-0.01486644674739843</v>
+        <v>-0.02600381024229832</v>
       </c>
       <c r="D92">
-        <v>0.3029061153066711</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2912179019260062</v>
+      </c>
+      <c r="E92">
+        <v>-0.1017839372236572</v>
+      </c>
+      <c r="F92">
+        <v>0.02021939530437769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1412113372704789</v>
+        <v>0.1525993919121214</v>
       </c>
       <c r="C93">
-        <v>-0.02046965079015226</v>
+        <v>-0.02999063840507082</v>
       </c>
       <c r="D93">
-        <v>0.2693117556032678</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2647922101699984</v>
+      </c>
+      <c r="E93">
+        <v>-0.07625547666547933</v>
+      </c>
+      <c r="F93">
+        <v>-0.002202047792058116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1340095019652862</v>
+        <v>0.1270630521357767</v>
       </c>
       <c r="C94">
-        <v>-0.02749854325409827</v>
+        <v>-0.02571599820850966</v>
       </c>
       <c r="D94">
-        <v>-0.04131331295785461</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03983835627051084</v>
+      </c>
+      <c r="E94">
+        <v>0.05702365888889677</v>
+      </c>
+      <c r="F94">
+        <v>-0.03262693496371993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1245376451392144</v>
+        <v>0.1275882128117093</v>
       </c>
       <c r="C95">
-        <v>-0.009469887830968608</v>
+        <v>-0.003646918772022657</v>
       </c>
       <c r="D95">
-        <v>-0.0878580256525071</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09880562060231166</v>
+      </c>
+      <c r="E95">
+        <v>0.05452281142237965</v>
+      </c>
+      <c r="F95">
+        <v>-0.001174640076289764</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1223732815866137</v>
+        <v>0.1161366216794903</v>
       </c>
       <c r="C96">
-        <v>0.9867331881281767</v>
+        <v>0.9863840069827492</v>
       </c>
       <c r="D96">
-        <v>0.01604822945724813</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05149446663530025</v>
+      </c>
+      <c r="E96">
+        <v>0.05220956744428163</v>
+      </c>
+      <c r="F96">
+        <v>-0.04207369586816328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1953573861824152</v>
+        <v>0.1961175266815077</v>
       </c>
       <c r="C97">
-        <v>0.004219523433847583</v>
+        <v>0.005177307828968532</v>
       </c>
       <c r="D97">
-        <v>0.01569242619213631</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02147408520775133</v>
+      </c>
+      <c r="E97">
+        <v>0.02078722251468247</v>
+      </c>
+      <c r="F97">
+        <v>0.1155641602746145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1999053065222286</v>
+        <v>0.2060125848614124</v>
       </c>
       <c r="C98">
-        <v>-0.01197255204286064</v>
+        <v>-0.007896061709723979</v>
       </c>
       <c r="D98">
-        <v>-0.01121710015017773</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01474170484764854</v>
+      </c>
+      <c r="E98">
+        <v>-0.07635212640521864</v>
+      </c>
+      <c r="F98">
+        <v>0.0913110018452645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05487765881859381</v>
+        <v>0.05539242374134133</v>
       </c>
       <c r="C99">
-        <v>0.002320256730942564</v>
+        <v>0.004052246008112627</v>
       </c>
       <c r="D99">
-        <v>-0.02904523148305923</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03852964906918733</v>
+      </c>
+      <c r="E99">
+        <v>0.02147617050637671</v>
+      </c>
+      <c r="F99">
+        <v>-0.004285533332363296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1423561012802184</v>
+        <v>0.129221786527075</v>
       </c>
       <c r="C100">
-        <v>0.03882363531356269</v>
+        <v>0.05125783228709048</v>
       </c>
       <c r="D100">
-        <v>-0.3976821630766592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3526793829193797</v>
+      </c>
+      <c r="E100">
+        <v>-0.8864493399478313</v>
+      </c>
+      <c r="F100">
+        <v>0.1441929188067693</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02496628129974859</v>
+        <v>0.02847571041416699</v>
       </c>
       <c r="C101">
-        <v>-0.00947077199092178</v>
+        <v>-0.008749402435074214</v>
       </c>
       <c r="D101">
-        <v>-0.02504884562932444</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03060593753873722</v>
+      </c>
+      <c r="E101">
+        <v>0.0125091836043969</v>
+      </c>
+      <c r="F101">
+        <v>0.01420212537501525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
